--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627716.059537988</v>
+        <v>1625463.979826781</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>78.37892431361304</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>374.3724651321501</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>147.4291364622105</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>252.7095467955502</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.78083674902116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>15.33854647026109</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>90.52240030468822</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6426651386088</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>125.4135346272756</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>159.9796912851476</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>106.1291803787679</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2606364488705</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>137.3021949834108</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9367233701398</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>68.62151774815479</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78315874934725</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>20.88994825141578</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705828</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2676.636298174514</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2676.636298174514</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2303.170539913434</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.170539913434</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064547</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1071.595817172699</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1168.749422762019</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>914.0649345561324</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="X4" t="n">
-        <v>1071.595817172699</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y4" t="n">
-        <v>1071.595817172699</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>124.0024964758067</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,25 +4565,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4610,7 +4610,7 @@
         <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450754</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>846.4114288731531</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>696.2947894608174</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>548.3816958784242</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>401.4917483805139</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.019128756565</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1474.601958719604</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.612407821587</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y7" t="n">
-        <v>1025.819828678057</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979148</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.547110979148</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>943.758858380904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>532.7729535912965</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1581.18466155292</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5367,10 +5367,10 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2298.214965955139</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2078.61350097808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5513,13 +5513,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6139,10 +6139,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>412.4141300772538</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>245.2180307921338</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
@@ -6467,46 +6467,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,19 +6838,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7558,7 +7558,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,7 +7637,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>19.85228889678973</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>146.0084629450601</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856555</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>33.76564955277411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>29.94462611521706</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>71.6731950980691</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>127.7255247667966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985037</v>
@@ -26329,31 +26329,31 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26436,7 +26436,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26525,43 +26525,43 @@
         <v>333559.3109322092</v>
       </c>
       <c r="D6" t="n">
-        <v>333559.3109322091</v>
+        <v>333559.3109322094</v>
       </c>
       <c r="E6" t="n">
-        <v>85113.43402041151</v>
+        <v>85078.6960949754</v>
       </c>
       <c r="F6" t="n">
-        <v>410525.8958277662</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="G6" t="n">
-        <v>410525.895827766</v>
+        <v>410491.1579023303</v>
       </c>
       <c r="H6" t="n">
-        <v>410525.8958277663</v>
+        <v>410491.1579023308</v>
       </c>
       <c r="I6" t="n">
-        <v>410525.8958277664</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="J6" t="n">
-        <v>192994.6934304888</v>
+        <v>192959.955505053</v>
       </c>
       <c r="K6" t="n">
-        <v>410525.8958277664</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="L6" t="n">
-        <v>410525.8958277664</v>
+        <v>410491.1579023306</v>
       </c>
       <c r="M6" t="n">
-        <v>325470.8678922546</v>
+        <v>325436.1299668188</v>
       </c>
       <c r="N6" t="n">
-        <v>410525.8958277664</v>
+        <v>410491.1579023306</v>
       </c>
       <c r="O6" t="n">
-        <v>410525.8958277663</v>
+        <v>410491.1579023306</v>
       </c>
       <c r="P6" t="n">
-        <v>410525.8958277663</v>
+        <v>410491.1579023307</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>249.3733341565219</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>11.86547352390352</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>19.81768463641731</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>33.50229141006272</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>395.5831791831924</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>75.50340795434001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,10 +27831,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>90.4949781852192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>285.5081910261779</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>270.4601319683919</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.61860823624234</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875802</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>461.1007071927452</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042469</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>318.5044627483008</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
